--- a/xlsx/印第安纳大学布卢明顿分校_intext.xlsx
+++ b/xlsx/印第安纳大学布卢明顿分校_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
   <si>
     <t>印第安纳大学布卢明顿分校</t>
   </si>
@@ -29,13 +29,13 @@
     <t>校训</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_印第安纳大学布卢明顿分校</t>
+    <t>政策_政策_维基百科_印第安纳大学布卢明顿分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>公立大學</t>
+    <t>公立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%91</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E9%95%B7</t>
   </si>
   <si>
-    <t>校長</t>
+    <t>校长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%A7%91%E7%94%9F</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E6%98%8E%E9%A0%93</t>
   </si>
   <si>
-    <t>布魯明頓</t>
+    <t>布鲁明顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>印第安納波利斯</t>
+    <t>印第安纳波利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E8%89%B2</t>
@@ -83,37 +83,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E5%9E%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>研究型大學</t>
+    <t>研究型大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A7%E5%AD%B8%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>美國大學協會</t>
+    <t>美国大学协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>印第安納州</t>
+    <t>印第安纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E5%A4%A7%E5%AD%B8%E8%88%87%E6%99%AE%E6%B8%A1%E5%A4%A7%E5%AD%B8%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E6%B3%A2%E9%87%8C%E6%96%AF%E8%81%AF%E5%90%88%E6%A0%A1%E5%8D%80</t>
   </si>
   <si>
-    <t>印第安納大學與普渡大學印第安納波里斯聯合校區</t>
+    <t>印第安纳大学与普渡大学印第安纳波里斯联合校区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%B0%E8%81%9E%E8%88%87%E4%B8%96%E7%95%8C%E5%A0%B1%E9%81%93</t>
   </si>
   <si>
-    <t>美國新聞與世界報道</t>
+    <t>美国新闻与世界报道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/US_News_and_World_Report</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>時代</t>
+    <t>时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Time</t>
@@ -155,25 +155,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈佛大學</t>
+    <t>哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E8%90%8A%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>凱萊商學院</t>
+    <t>凯莱商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>華爾街日報</t>
+    <t>华尔街日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E5%91%A8%E5%88%8A</t>
   </si>
   <si>
-    <t>商業周刊</t>
+    <t>商业周刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Business_Week</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93</t>
   </si>
   <si>
-    <t>聖路易</t>
+    <t>圣路易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E8%81%BF%E9%8A%98</t>
   </si>
   <si>
-    <t>貝聿銘</t>
+    <t>贝聿铭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%A5%88</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%A2%E5%8A%A0%E7%B4%A2</t>
   </si>
   <si>
-    <t>畢加索</t>
+    <t>毕加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Pablo_Picasso</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E9%87%91%E8%B3%BD</t>
   </si>
   <si>
-    <t>阿爾弗雷德·金賽</t>
+    <t>阿尔弗雷德·金赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E9%82%A3%E5%A4%A7%E5%AD%A6%E6%91%A9%E5%88%A9%E5%B0%94%E6%B3%95%E5%AD%A6%E9%99%A2</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E8%A9%A0%E8%A9%A9</t>
   </si>
   <si>
-    <t>葉詠詩</t>
+    <t>叶咏诗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%A4%A7%E8%81%94%E7%9B%9F</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%A4%A7%E5%AD%B8%E5%AD%B8%E9%99%A2%E5%B8%82%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>馬里蘭大學學院市分校</t>
+    <t>马里兰大学学院市分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%A4%A7%E5%AD%A6%E6%B7%A1%E6%B0%B4%E9%BE%9F%E9%98%9F</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>密西根州立大學</t>
+    <t>密西根州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6%E6%96%AF%E5%B7%B4%E8%BE%BE%E4%BA%BA%E9%98%9F</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B8%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>普渡大學</t>
+    <t>普渡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B8%A1%E5%A4%A7%E5%AD%A6%E9%94%85%E7%82%89%E5%B7%A5%E9%98%9F</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E5%A4%A7%E5%AD%B8%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>Template talk-美國大學協會</t>
+    <t>Template talk-美国大学协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%A4%A7%E5%AD%A6</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學柏克萊分校</t>
+    <t>加州大学柏克莱分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%88%B4%E7%BB%B4%E6%96%AF%E5%88%86%E6%A0%A1</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E7%88%BE%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學爾灣分校</t>
+    <t>加州大学尔湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%88%86%E6%A0%A1</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>科羅拉多大學</t>
+    <t>科罗拉多大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%A4%A7%E5%AD%A6</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊利諾大學</t>
+    <t>伊利诺大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%8D%B7%E5%8D%8E%E5%A4%A7%E5%AD%A6</t>
@@ -485,25 +485,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>紐約州立大學</t>
+    <t>纽约州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%B0%B4%E7%89%9B%E5%9F%8E%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>紐約州立大學水牛城分校</t>
+    <t>纽约州立大学水牛城分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%BA%AA%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>石溪大學</t>
+    <t>石溪大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>北卡羅來納大學</t>
+    <t>北卡罗来纳大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%A4%A7%E5%AD%A6%E6%95%99%E5%A0%82%E5%B1%B1%E5%88%86%E6%A0%A1</t>
@@ -515,25 +515,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>俄勒岡大學</t>
+    <t>俄勒冈大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>匹茲堡大學</t>
+    <t>匹兹堡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%A5%A7%E6%96%AF%E6%B1%80%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>德克薩斯州立大學奧斯汀分校</t>
+    <t>德克萨斯州立大学奥斯汀分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E8%BE%B2%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>德州農工大學</t>
+    <t>德州农工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
@@ -557,13 +557,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>私立大學</t>
+    <t>私立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>波士頓大學</t>
+    <t>波士顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%85%B0%E8%BF%AA%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%96%AF%E8%A5%BF%E5%84%B2%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>凱斯西儲大學</t>
+    <t>凯斯西储大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%A6</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>康乃爾大學</t>
+    <t>康乃尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%85%8B%E5%A4%A7%E5%AD%A6</t>
@@ -623,15 +623,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%BB%98%E9%87%8C%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>埃默里大學</t>
+    <t>埃默里大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>哈佛大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
@@ -659,13 +656,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>萊斯大學</t>
+    <t>莱斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B9%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅徹斯特大學</t>
+    <t>罗彻斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6</t>
@@ -677,13 +674,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>史丹佛大學</t>
+    <t>史丹佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E8%98%AD%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>杜蘭大學</t>
+    <t>杜兰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E5%BE%B7%E5%A0%A1%E5%A4%A7%E5%AD%A6</t>
@@ -707,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%A4%A7%E5%AD%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>加拿大大學列表</t>
+    <t>加拿大大学列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%90%89%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
@@ -719,19 +716,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>多倫多大學</t>
+    <t>多伦多大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A9%E4%B8%BB%E6%95%99%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美國天主教大學</t>
+    <t>美国天主教大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>克拉克大學</t>
+    <t>克拉克大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E5%9F%8E%E5%A4%A7%E5%AD%A6</t>
@@ -4278,7 +4275,7 @@
         <v>203</v>
       </c>
       <c r="F110" t="s">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4333,10 +4330,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>204</v>
+      </c>
+      <c r="F112" t="s">
         <v>205</v>
-      </c>
-      <c r="F112" t="s">
-        <v>206</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4391,10 +4388,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>206</v>
+      </c>
+      <c r="F114" t="s">
         <v>207</v>
-      </c>
-      <c r="F114" t="s">
-        <v>208</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4420,10 +4417,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>208</v>
+      </c>
+      <c r="F115" t="s">
         <v>209</v>
-      </c>
-      <c r="F115" t="s">
-        <v>210</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4449,10 +4446,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>210</v>
+      </c>
+      <c r="F116" t="s">
         <v>211</v>
-      </c>
-      <c r="F116" t="s">
-        <v>212</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4478,10 +4475,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>212</v>
+      </c>
+      <c r="F117" t="s">
         <v>213</v>
-      </c>
-      <c r="F117" t="s">
-        <v>214</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4507,10 +4504,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>214</v>
+      </c>
+      <c r="F118" t="s">
         <v>215</v>
-      </c>
-      <c r="F118" t="s">
-        <v>216</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4536,10 +4533,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>216</v>
+      </c>
+      <c r="F119" t="s">
         <v>217</v>
-      </c>
-      <c r="F119" t="s">
-        <v>218</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4565,10 +4562,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>218</v>
+      </c>
+      <c r="F120" t="s">
         <v>219</v>
-      </c>
-      <c r="F120" t="s">
-        <v>220</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4594,10 +4591,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>220</v>
+      </c>
+      <c r="F121" t="s">
         <v>221</v>
-      </c>
-      <c r="F121" t="s">
-        <v>222</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4623,10 +4620,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>222</v>
+      </c>
+      <c r="F122" t="s">
         <v>223</v>
-      </c>
-      <c r="F122" t="s">
-        <v>224</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4652,10 +4649,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>224</v>
+      </c>
+      <c r="F123" t="s">
         <v>225</v>
-      </c>
-      <c r="F123" t="s">
-        <v>226</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4681,10 +4678,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>226</v>
+      </c>
+      <c r="F124" t="s">
         <v>227</v>
-      </c>
-      <c r="F124" t="s">
-        <v>228</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4710,10 +4707,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>228</v>
+      </c>
+      <c r="F125" t="s">
         <v>229</v>
-      </c>
-      <c r="F125" t="s">
-        <v>230</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -4739,10 +4736,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>230</v>
+      </c>
+      <c r="F126" t="s">
         <v>231</v>
-      </c>
-      <c r="F126" t="s">
-        <v>232</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4768,10 +4765,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>232</v>
+      </c>
+      <c r="F127" t="s">
         <v>233</v>
-      </c>
-      <c r="F127" t="s">
-        <v>234</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4797,10 +4794,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>234</v>
+      </c>
+      <c r="F128" t="s">
         <v>235</v>
-      </c>
-      <c r="F128" t="s">
-        <v>236</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4826,10 +4823,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>236</v>
+      </c>
+      <c r="F129" t="s">
         <v>237</v>
-      </c>
-      <c r="F129" t="s">
-        <v>238</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4855,10 +4852,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>238</v>
+      </c>
+      <c r="F130" t="s">
         <v>239</v>
-      </c>
-      <c r="F130" t="s">
-        <v>240</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -4913,10 +4910,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>240</v>
+      </c>
+      <c r="F132" t="s">
         <v>241</v>
-      </c>
-      <c r="F132" t="s">
-        <v>242</v>
       </c>
       <c r="G132" t="n">
         <v>9</v>
@@ -4942,10 +4939,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F133" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
